--- a/src/test/resources/excel/user.xlsx
+++ b/src/test/resources/excel/user.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
   <si>
     <t>firstName</t>
   </si>
@@ -697,6 +697,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
